--- a/biology/Virologie/Cheravirus/Cheravirus.xlsx
+++ b/biology/Virologie/Cheravirus/Cheravirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheravirus est un genre de virus de la famille des Secoviridae, qui comprend cinq espèces acceptées par l'ICTV. Ce sont des virus à ARN linéaire à simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore, qui infectent les plantes (phytovirus).
-Ces virus sont transmis horizontalement par des nématodes et verticalement par les graines[2].
+Ces virus sont transmis horizontalement par des nématodes et verticalement par les graines.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Cheravirus », est dérivé du nom de l'espèce-type, Cherry rasp leaf virus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Cheravirus », est dérivé du nom de l'espèce-type, Cherry rasp leaf virus.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions, non enveloppés, sont des particules à capside quasi sphérique à symétrie icosaédrique  (T=pseudo3) de 25 à 30 nm de diamètre[4].
-Le génome, bipartite, est réparti en deux segments d'ARN simple brin de polarité positive, linéaire, ARN1 et ARN2, de 7 kb et 3,3 kb respectivement. L'extrémité 3' est polyadénylée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions, non enveloppés, sont des particules à capside quasi sphérique à symétrie icosaédrique  (T=pseudo3) de 25 à 30 nm de diamètre.
+Le génome, bipartite, est réparti en deux segments d'ARN simple brin de polarité positive, linéaire, ARN1 et ARN2, de 7 kb et 3,3 kb respectivement. L'extrémité 3' est polyadénylée.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 janvier 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 janvier 2021) :
 Apple latent spherical virus (ALSV)
 Arracacha virus B (AVB)
 Cherry rasp leaf virus (CRLV)
